--- a/AI & Chatbot/Sprint 4/base_cadastro.xlsx
+++ b/AI & Chatbot/Sprint 4/base_cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ezzeseguroscombr-my.sharepoint.com/personal/claudio_bispo_ezzeseguros_com_br/Documents/Área de Trabalho/IA - Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{79FD7E74-E068-43A9-B7B6-228C3F9940F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E4F5BF-8C64-427A-84C2-66BFACF7E58F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{79FD7E74-E068-43A9-B7B6-228C3F9940F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B68A3D-4E9D-4A6D-8EBF-E558E0BC577F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF941839-A256-4DBB-87EE-52BCBE78BA0D}"/>
   </bookViews>
@@ -336,9 +336,6 @@
     <t>joao@github.com.br</t>
   </si>
   <si>
-    <t>alice@egithub.com.br</t>
-  </si>
-  <si>
     <t>fernando@github.com.br</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>DDD</t>
+  </si>
+  <si>
+    <t>alice@github.com.br</t>
   </si>
 </sst>
 </file>
@@ -681,6 +681,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -984,7 +988,7 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1319,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D12" s="4">
         <v>11987654321</v>
@@ -1464,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
         <v>11987654321</v>
@@ -1493,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4">
         <v>11958856655</v>
@@ -1522,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>11991234567</v>
@@ -1551,7 +1555,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4">
         <v>11987654321</v>
@@ -1580,7 +1584,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4">
         <v>11958856655</v>
@@ -1609,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4">
         <v>11991234567</v>
@@ -1638,7 +1642,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>11987654321</v>
@@ -1667,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4">
         <v>11958856655</v>
@@ -1696,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4">
         <v>11991234567</v>
@@ -1725,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="4">
         <v>11987654321</v>
@@ -1783,7 +1787,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="4">
         <v>11991234567</v>
@@ -1870,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="4">
         <v>11987654321</v>
@@ -1928,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4">
         <v>11958856655</v>
@@ -1986,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>11987654321</v>
@@ -2015,7 +2019,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4">
         <v>11958856655</v>
@@ -2044,7 +2048,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="4">
         <v>11987654321</v>
@@ -2073,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4">
         <v>11958856655</v>
@@ -2102,7 +2106,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4">
         <v>11991234567</v>
@@ -2131,7 +2135,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="4">
         <v>11987654321</v>
@@ -2160,7 +2164,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4">
         <v>11958856655</v>
@@ -2218,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4">
         <v>31958856655</v>
@@ -2247,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4">
         <v>31991234567</v>
@@ -2276,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4">
         <v>31987654321</v>
@@ -2305,7 +2309,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4">
         <v>31958856655</v>
@@ -2334,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4">
         <v>31991234567</v>
@@ -2363,7 +2367,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4">
         <v>31987654321</v>
@@ -2392,7 +2396,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4">
         <v>31958856655</v>
@@ -2450,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="4">
         <v>31987654321</v>
@@ -2479,7 +2483,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="4">
         <v>31958856655</v>
@@ -2508,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="4">
         <v>31991234567</v>
@@ -2537,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="4">
         <v>31987654321</v>
@@ -2566,7 +2570,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="4">
         <v>31958856655</v>
@@ -2595,7 +2599,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="4">
         <v>31991234567</v>
@@ -2624,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="4">
         <v>31987654321</v>
@@ -2653,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="4">
         <v>31958856655</v>
@@ -2682,7 +2686,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="4">
         <v>31991234567</v>
@@ -2711,7 +2715,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="4">
         <v>31987654321</v>
@@ -2740,7 +2744,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="4">
         <v>21987654321</v>
@@ -2769,7 +2773,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" s="4">
         <v>21958856655</v>
@@ -2798,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="4">
         <v>21991234567</v>
@@ -2827,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="4">
         <v>21987654321</v>
@@ -2856,7 +2860,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="4">
         <v>21958856655</v>
@@ -2885,7 +2889,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4">
         <v>21991234567</v>
@@ -2914,7 +2918,7 @@
         <v>32</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" s="4">
         <v>21987654321</v>
@@ -2943,7 +2947,7 @@
         <v>36</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="4">
         <v>21958856655</v>
@@ -2972,7 +2976,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="4">
         <v>21991234567</v>
@@ -3001,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4">
         <v>21987654321</v>
@@ -3030,7 +3034,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="4">
         <v>21958856655</v>
@@ -3059,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D72" s="4">
         <v>21991234567</v>
@@ -3088,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="4">
         <v>21987654321</v>
@@ -3117,7 +3121,7 @@
         <v>30</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D74" s="4">
         <v>21958856655</v>
@@ -3146,7 +3150,7 @@
         <v>34</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="4">
         <v>21991234567</v>
@@ -3175,7 +3179,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="4">
         <v>21987654321</v>
@@ -3204,7 +3208,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77" s="4">
         <v>21958856655</v>
@@ -3233,7 +3237,7 @@
         <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D78" s="4">
         <v>21991234567</v>
@@ -3262,7 +3266,7 @@
         <v>21</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79" s="4">
         <v>21987654321</v>
@@ -3291,7 +3295,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" s="4">
         <v>11987654321</v>
@@ -3320,7 +3324,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D81" s="4">
         <v>21958856655</v>
@@ -3349,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" s="4">
         <v>31991234567</v>
@@ -3378,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D83" s="4">
         <v>21987654321</v>
@@ -3407,7 +3411,7 @@
         <v>30</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D84" s="4">
         <v>31958856655</v>
@@ -3436,7 +3440,7 @@
         <v>34</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D85" s="4">
         <v>11991234567</v>
@@ -3465,7 +3469,7 @@
         <v>32</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" s="4">
         <v>31987654321</v>
@@ -3494,7 +3498,7 @@
         <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="4">
         <v>21958856655</v>
@@ -3523,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" s="4">
         <v>31991234567</v>
@@ -3552,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="4">
         <v>11987654321</v>
@@ -3581,7 +3585,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90" s="4">
         <v>21958856655</v>
@@ -3610,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" s="4">
         <v>31991234567</v>
@@ -3639,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" s="4">
         <v>11987654321</v>
@@ -3668,7 +3672,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4">
         <v>31958856655</v>
@@ -3697,7 +3701,7 @@
         <v>34</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="4">
         <v>11991234567</v>
@@ -3726,7 +3730,7 @@
         <v>32</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="4">
         <v>21987654321</v>
@@ -3755,7 +3759,7 @@
         <v>36</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D96" s="4">
         <v>31958856655</v>
@@ -3784,7 +3788,7 @@
         <v>38</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97" s="4">
         <v>11991234567</v>
@@ -3813,7 +3817,7 @@
         <v>21</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D98" s="4">
         <v>21987654321</v>
@@ -3842,7 +3846,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D99" s="4">
         <v>12999998888</v>
@@ -3871,7 +3875,7 @@
         <v>21</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100" s="4">
         <v>64999998888</v>
@@ -3900,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="4">
         <v>51999998888</v>
@@ -3929,7 +3933,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="4">
         <v>54999998888</v>
@@ -3958,7 +3962,7 @@
         <v>30</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103" s="4">
         <v>21999998888</v>
@@ -3987,7 +3991,7 @@
         <v>34</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="4">
         <v>82999998888</v>
@@ -4016,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D105" s="4">
         <v>38999998888</v>
@@ -4074,7 +4078,7 @@
         <v>38</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" s="4">
         <v>68999998888</v>
@@ -4103,7 +4107,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" s="4">
         <v>78999998888</v>
@@ -4132,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4">
         <v>47999998888</v>
@@ -4161,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" s="4">
         <v>21999998888</v>
@@ -4190,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D111" s="4">
         <v>83999998888</v>
@@ -4219,7 +4223,7 @@
         <v>30</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="4">
         <v>61999998888</v>
@@ -4248,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" s="4">
         <v>32999998888</v>
@@ -4277,7 +4281,7 @@
         <v>32</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" s="4">
         <v>69999998888</v>
